--- a/analysis_data/from_pema/processing_batch1/pema_overview_batch1.xlsx
+++ b/analysis_data/from_pema/processing_batch1/pema_overview_batch1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katrinae\Desktop\GitHub\data_workspace\analysis_data\from_pema\processing_batch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8269092-B211-42A6-A631-F55B9F1E5B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDCC8FC-5E28-4FA9-BE9A-FD5828910C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="7810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18S corrected" sheetId="10" r:id="rId1"/>
@@ -5961,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDD7B1-47C7-449F-BC38-19B9531C7938}">
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView topLeftCell="R181" workbookViewId="0">
-      <selection activeCell="S190" sqref="S190"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6102,7 +6102,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>530</v>
@@ -12203,8 +12203,8 @@
       <c r="P96" s="5">
         <v>500</v>
       </c>
-      <c r="Q96" s="11" t="s">
-        <v>1784</v>
+      <c r="Q96" s="4" t="s">
+        <v>1787</v>
       </c>
       <c r="R96" s="4" t="s">
         <v>117</v>
@@ -13763,8 +13763,8 @@
       <c r="P120" s="5">
         <v>200</v>
       </c>
-      <c r="Q120" s="11" t="s">
-        <v>1783</v>
+      <c r="Q120" s="4" t="s">
+        <v>1786</v>
       </c>
       <c r="R120" s="4" t="s">
         <v>664</v>
@@ -17794,7 +17794,7 @@
         <v>500</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="R182" s="4" t="s">
         <v>383</v>
@@ -25713,7 +25713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC59258A-BBF8-4573-BF53-F5584A33F67B}">
   <dimension ref="A1:V191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L127" workbookViewId="0">
+    <sheetView topLeftCell="L127" workbookViewId="0">
       <selection activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
